--- a/data/analysis/social_media_analytics/pivot_tables/governance/museum_activity_groups__var1-governance.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance/museum_activity_groups__var1-governance.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -458,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -496,188 +499,275 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>8415</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2429.3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4190</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4207.5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4225</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>4207.5</v>
-      </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4</v>
+        <v>-2</v>
       </c>
       <c r="O4">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>3</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-2</v>
+      </c>
+      <c r="AB4">
+        <v>4826</v>
+      </c>
+      <c r="AC4">
+        <v>1608.7</v>
+      </c>
+      <c r="AD4">
+        <v>1394.1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1181</v>
+      </c>
+      <c r="AG4">
+        <v>2362</v>
+      </c>
+      <c r="AH4">
         <v>2413</v>
       </c>
-      <c r="Y4">
+      <c r="AI4">
+        <v>2464</v>
+      </c>
+      <c r="AJ4">
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <v>2413</v>
+      </c>
+      <c r="AL4">
         <v>2</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>66.7</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>1631019</v>
+        <v>676612</v>
       </c>
       <c r="C5">
-        <v>2271.6</v>
+        <v>942.4</v>
       </c>
       <c r="D5">
-        <v>4946.6</v>
+        <v>1733.7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -686,37 +776,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>631</v>
+        <v>256</v>
       </c>
       <c r="H5">
-        <v>2186.5</v>
+        <v>1318.2</v>
       </c>
       <c r="I5">
-        <v>68140</v>
+        <v>19900</v>
       </c>
       <c r="J5">
         <v>718</v>
       </c>
       <c r="K5">
-        <v>3136.6</v>
+        <v>1483.8</v>
       </c>
       <c r="L5">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="M5">
-        <v>72.40000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="N5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O5">
-        <v>392839</v>
+        <v>197297</v>
       </c>
       <c r="P5">
-        <v>547.1</v>
+        <v>274.8</v>
       </c>
       <c r="Q5">
-        <v>1222.2</v>
+        <v>864.9</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -725,125 +815,203 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U5">
-        <v>721.5</v>
+        <v>224.8</v>
       </c>
       <c r="V5">
-        <v>13336</v>
+        <v>12827</v>
       </c>
       <c r="W5">
         <v>718</v>
       </c>
       <c r="X5">
+        <v>430.8</v>
+      </c>
+      <c r="Y5">
+        <v>458</v>
+      </c>
+      <c r="Z5">
+        <v>63.8</v>
+      </c>
+      <c r="AA5">
+        <v>0.6</v>
+      </c>
+      <c r="AB5">
+        <v>392839</v>
+      </c>
+      <c r="AC5">
+        <v>547.1</v>
+      </c>
+      <c r="AD5">
+        <v>1222.2</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>721.5</v>
+      </c>
+      <c r="AI5">
+        <v>13336</v>
+      </c>
+      <c r="AJ5">
+        <v>718</v>
+      </c>
+      <c r="AK5">
         <v>1259.1</v>
       </c>
-      <c r="Y5">
+      <c r="AL5">
         <v>312</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>43.5</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>311977</v>
+        <v>165062</v>
       </c>
       <c r="C6">
-        <v>4521.4</v>
+        <v>2392.2</v>
       </c>
       <c r="D6">
-        <v>5985</v>
+        <v>3566.1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2373</v>
+        <v>1045</v>
       </c>
       <c r="H6">
-        <v>6555</v>
+        <v>3607</v>
       </c>
       <c r="I6">
-        <v>23410</v>
+        <v>18330</v>
       </c>
       <c r="J6">
         <v>69</v>
       </c>
       <c r="K6">
-        <v>5473.3</v>
+        <v>3301.2</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>82.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="N6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>47125</v>
+        <v>117541</v>
       </c>
       <c r="P6">
-        <v>683</v>
+        <v>1703.5</v>
       </c>
       <c r="Q6">
-        <v>645.8</v>
+        <v>3180.9</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>686</v>
+        <v>315</v>
       </c>
       <c r="U6">
-        <v>1003</v>
+        <v>1871</v>
       </c>
       <c r="V6">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="W6">
         <v>69</v>
       </c>
       <c r="X6">
+        <v>2217.8</v>
+      </c>
+      <c r="Y6">
+        <v>53</v>
+      </c>
+      <c r="Z6">
+        <v>76.8</v>
+      </c>
+      <c r="AA6">
+        <v>1.1</v>
+      </c>
+      <c r="AB6">
+        <v>47125</v>
+      </c>
+      <c r="AC6">
+        <v>683</v>
+      </c>
+      <c r="AD6">
+        <v>645.8</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>686</v>
+      </c>
+      <c r="AH6">
+        <v>1003</v>
+      </c>
+      <c r="AI6">
+        <v>2991</v>
+      </c>
+      <c r="AJ6">
+        <v>69</v>
+      </c>
+      <c r="AK6">
         <v>981.8</v>
       </c>
-      <c r="Y6">
+      <c r="AL6">
         <v>48</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>69.59999999999999</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>3264</v>
+        <v>2452</v>
       </c>
       <c r="C7">
-        <v>652.8</v>
+        <v>490.4</v>
       </c>
       <c r="D7">
-        <v>852.3</v>
+        <v>677.9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -852,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="H7">
-        <v>856</v>
+        <v>548</v>
       </c>
       <c r="I7">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>1088</v>
+        <v>817.3</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -873,16 +1041,16 @@
         <v>60</v>
       </c>
       <c r="N7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
-        <v>1252</v>
+        <v>809</v>
       </c>
       <c r="P7">
-        <v>250.4</v>
+        <v>161.8</v>
       </c>
       <c r="Q7">
-        <v>344.6</v>
+        <v>186.6</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -891,42 +1059,81 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="U7">
-        <v>577</v>
+        <v>304</v>
       </c>
       <c r="V7">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7">
+        <v>269.7</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>60</v>
+      </c>
+      <c r="AA7">
+        <v>0.4</v>
+      </c>
+      <c r="AB7">
+        <v>1252</v>
+      </c>
+      <c r="AC7">
+        <v>250.4</v>
+      </c>
+      <c r="AD7">
+        <v>344.6</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>577</v>
+      </c>
+      <c r="AI7">
+        <v>675</v>
+      </c>
+      <c r="AJ7">
+        <v>5</v>
+      </c>
+      <c r="AK7">
         <v>626</v>
       </c>
-      <c r="Y7">
+      <c r="AL7">
         <v>2</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>40</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>11254</v>
+        <v>7803</v>
       </c>
       <c r="C8">
-        <v>216.4</v>
+        <v>150.1</v>
       </c>
       <c r="D8">
-        <v>465.2</v>
+        <v>330.4</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -938,34 +1145,34 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>250.2</v>
+        <v>203</v>
       </c>
       <c r="I8">
-        <v>2773</v>
+        <v>2032</v>
       </c>
       <c r="J8">
         <v>52</v>
       </c>
       <c r="K8">
-        <v>511.5</v>
+        <v>390.2</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>42.3</v>
+        <v>38.5</v>
       </c>
       <c r="N8">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="O8">
-        <v>5233</v>
+        <v>3414</v>
       </c>
       <c r="P8">
-        <v>100.6</v>
+        <v>65.7</v>
       </c>
       <c r="Q8">
-        <v>178.1</v>
+        <v>137.6</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -977,39 +1184,78 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>108.8</v>
+        <v>63.8</v>
       </c>
       <c r="V8">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="W8">
         <v>52</v>
       </c>
       <c r="X8">
+        <v>155.2</v>
+      </c>
+      <c r="Y8">
+        <v>22</v>
+      </c>
+      <c r="Z8">
+        <v>42.3</v>
+      </c>
+      <c r="AA8">
+        <v>-0.3</v>
+      </c>
+      <c r="AB8">
+        <v>5233</v>
+      </c>
+      <c r="AC8">
+        <v>100.6</v>
+      </c>
+      <c r="AD8">
+        <v>178.1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>108.8</v>
+      </c>
+      <c r="AI8">
+        <v>727</v>
+      </c>
+      <c r="AJ8">
+        <v>52</v>
+      </c>
+      <c r="AK8">
         <v>327.1</v>
       </c>
-      <c r="Y8">
+      <c r="AL8">
         <v>16</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>30.8</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>7239</v>
+        <v>650</v>
       </c>
       <c r="C9">
-        <v>381</v>
+        <v>34.2</v>
       </c>
       <c r="D9">
-        <v>1491.6</v>
+        <v>149.1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1024,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6501</v>
+        <v>650</v>
       </c>
       <c r="J9">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>3619.5</v>
+        <v>650</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="N9">
-        <v>-2.4</v>
+        <v>-1.8</v>
       </c>
       <c r="O9">
-        <v>672</v>
+        <v>86</v>
       </c>
       <c r="P9">
-        <v>35.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q9">
-        <v>107.8</v>
+        <v>19.7</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1063,36 +1309,75 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>395</v>
+        <v>86</v>
       </c>
       <c r="W9">
         <v>19</v>
       </c>
       <c r="X9">
+        <v>86</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>5.3</v>
+      </c>
+      <c r="AA9">
+        <v>-1.8</v>
+      </c>
+      <c r="AB9">
+        <v>672</v>
+      </c>
+      <c r="AC9">
+        <v>35.4</v>
+      </c>
+      <c r="AD9">
+        <v>107.8</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>395</v>
+      </c>
+      <c r="AJ9">
+        <v>19</v>
+      </c>
+      <c r="AK9">
         <v>336</v>
       </c>
-      <c r="Y9">
+      <c r="AL9">
         <v>2</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>10.5</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>113919</v>
+        <v>86651</v>
       </c>
       <c r="C10">
-        <v>622.5</v>
+        <v>473.5</v>
       </c>
       <c r="D10">
-        <v>1158.8</v>
+        <v>906.2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1101,37 +1386,37 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="H10">
-        <v>784.5</v>
+        <v>609</v>
       </c>
       <c r="I10">
-        <v>9764</v>
+        <v>8769</v>
       </c>
       <c r="J10">
         <v>183</v>
       </c>
       <c r="K10">
-        <v>876.3</v>
+        <v>682.3</v>
       </c>
       <c r="L10">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>71</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="N10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O10">
-        <v>42284</v>
+        <v>27132</v>
       </c>
       <c r="P10">
-        <v>231.1</v>
+        <v>148.3</v>
       </c>
       <c r="Q10">
-        <v>298.1</v>
+        <v>308.9</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1140,42 +1425,81 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U10">
-        <v>432</v>
+        <v>183.5</v>
       </c>
       <c r="V10">
-        <v>1253</v>
+        <v>2905</v>
       </c>
       <c r="W10">
         <v>183</v>
       </c>
       <c r="X10">
+        <v>208.7</v>
+      </c>
+      <c r="Y10">
+        <v>130</v>
+      </c>
+      <c r="Z10">
+        <v>71</v>
+      </c>
+      <c r="AA10">
+        <v>0.9</v>
+      </c>
+      <c r="AB10">
+        <v>42284</v>
+      </c>
+      <c r="AC10">
+        <v>231.1</v>
+      </c>
+      <c r="AD10">
+        <v>298.1</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>432</v>
+      </c>
+      <c r="AI10">
+        <v>1253</v>
+      </c>
+      <c r="AJ10">
+        <v>183</v>
+      </c>
+      <c r="AK10">
         <v>486</v>
       </c>
-      <c r="Y10">
+      <c r="AL10">
         <v>87</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>47.5</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>12862</v>
+        <v>9357</v>
       </c>
       <c r="C11">
-        <v>494.7</v>
+        <v>359.9</v>
       </c>
       <c r="D11">
-        <v>764.7</v>
+        <v>531.5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1184,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>34.5</v>
+        <v>21.5</v>
       </c>
       <c r="H11">
-        <v>694.2</v>
+        <v>563</v>
       </c>
       <c r="I11">
-        <v>2476</v>
+        <v>1662</v>
       </c>
       <c r="J11">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>857.5</v>
+        <v>623.8</v>
       </c>
       <c r="L11">
         <v>15</v>
@@ -1205,16 +1529,16 @@
         <v>57.7</v>
       </c>
       <c r="N11">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="O11">
-        <v>5471</v>
+        <v>3480</v>
       </c>
       <c r="P11">
-        <v>210.4</v>
+        <v>133.8</v>
       </c>
       <c r="Q11">
-        <v>476.7</v>
+        <v>257.6</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1223,42 +1547,81 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="U11">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="V11">
-        <v>1716</v>
+        <v>809</v>
       </c>
       <c r="W11">
         <v>26</v>
       </c>
       <c r="X11">
+        <v>232</v>
+      </c>
+      <c r="Y11">
+        <v>15</v>
+      </c>
+      <c r="Z11">
+        <v>57.7</v>
+      </c>
+      <c r="AA11">
+        <v>0.3</v>
+      </c>
+      <c r="AB11">
+        <v>5471</v>
+      </c>
+      <c r="AC11">
+        <v>210.4</v>
+      </c>
+      <c r="AD11">
+        <v>476.7</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>129</v>
+      </c>
+      <c r="AI11">
+        <v>1716</v>
+      </c>
+      <c r="AJ11">
+        <v>26</v>
+      </c>
+      <c r="AK11">
         <v>781.6</v>
       </c>
-      <c r="Y11">
+      <c r="AL11">
         <v>7</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>26.9</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>2205356</v>
+        <v>1032093</v>
       </c>
       <c r="C12">
-        <v>1439.5</v>
+        <v>673.7</v>
       </c>
       <c r="D12">
-        <v>4769.7</v>
+        <v>2073.6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1267,37 +1630,37 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="H12">
-        <v>1039.2</v>
+        <v>721.5</v>
       </c>
       <c r="I12">
-        <v>74441</v>
+        <v>47580</v>
       </c>
       <c r="J12">
         <v>1532</v>
       </c>
       <c r="K12">
-        <v>2120.5</v>
+        <v>1067.3</v>
       </c>
       <c r="L12">
-        <v>1040</v>
+        <v>967</v>
       </c>
       <c r="M12">
-        <v>67.90000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="N12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O12">
-        <v>390790</v>
+        <v>362115</v>
       </c>
       <c r="P12">
-        <v>255.1</v>
+        <v>236.4</v>
       </c>
       <c r="Q12">
-        <v>723.5</v>
+        <v>924</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1306,42 +1669,81 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U12">
-        <v>292.2</v>
+        <v>123</v>
       </c>
       <c r="V12">
-        <v>20246</v>
+        <v>20111</v>
       </c>
       <c r="W12">
         <v>1532</v>
       </c>
       <c r="X12">
+        <v>372.5</v>
+      </c>
+      <c r="Y12">
+        <v>972</v>
+      </c>
+      <c r="Z12">
+        <v>63.4</v>
+      </c>
+      <c r="AA12">
+        <v>0.6</v>
+      </c>
+      <c r="AB12">
+        <v>390790</v>
+      </c>
+      <c r="AC12">
+        <v>255.1</v>
+      </c>
+      <c r="AD12">
+        <v>723.5</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>292.2</v>
+      </c>
+      <c r="AI12">
+        <v>20246</v>
+      </c>
+      <c r="AJ12">
+        <v>1532</v>
+      </c>
+      <c r="AK12">
         <v>789.5</v>
       </c>
-      <c r="Y12">
+      <c r="AL12">
         <v>495</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>32.3</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>523528</v>
+        <v>194065</v>
       </c>
       <c r="C13">
-        <v>1109.2</v>
+        <v>411.2</v>
       </c>
       <c r="D13">
-        <v>5060.2</v>
+        <v>2388.7</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1350,37 +1752,37 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>431.8</v>
+        <v>247.2</v>
       </c>
       <c r="I13">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="J13">
         <v>472</v>
       </c>
       <c r="K13">
-        <v>1939</v>
+        <v>840.1</v>
       </c>
       <c r="L13">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="M13">
-        <v>57.2</v>
+        <v>48.9</v>
       </c>
       <c r="N13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>197427</v>
+        <v>84346</v>
       </c>
       <c r="P13">
-        <v>418.3</v>
+        <v>178.7</v>
       </c>
       <c r="Q13">
-        <v>2518.4</v>
+        <v>1343.8</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1389,42 +1791,81 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U13">
-        <v>200</v>
+        <v>48.2</v>
       </c>
       <c r="V13">
-        <v>36948</v>
+        <v>20884</v>
       </c>
       <c r="W13">
         <v>472</v>
       </c>
       <c r="X13">
+        <v>342.9</v>
+      </c>
+      <c r="Y13">
+        <v>246</v>
+      </c>
+      <c r="Z13">
+        <v>52.1</v>
+      </c>
+      <c r="AA13">
+        <v>0.1</v>
+      </c>
+      <c r="AB13">
+        <v>197427</v>
+      </c>
+      <c r="AC13">
+        <v>418.3</v>
+      </c>
+      <c r="AD13">
+        <v>2518.4</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>200</v>
+      </c>
+      <c r="AI13">
+        <v>36948</v>
+      </c>
+      <c r="AJ13">
+        <v>472</v>
+      </c>
+      <c r="AK13">
         <v>1371</v>
       </c>
-      <c r="Y13">
+      <c r="AL13">
         <v>144</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>30.5</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>195675</v>
+        <v>48825</v>
       </c>
       <c r="C14">
-        <v>1731.6</v>
+        <v>432.1</v>
       </c>
       <c r="D14">
-        <v>6363.6</v>
+        <v>989.4</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1436,34 +1877,34 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>637</v>
+        <v>250</v>
       </c>
       <c r="I14">
-        <v>52506</v>
+        <v>6108</v>
       </c>
       <c r="J14">
         <v>113</v>
       </c>
       <c r="K14">
-        <v>3763</v>
+        <v>1109.7</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>38.9</v>
       </c>
       <c r="N14">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="O14">
-        <v>39884</v>
+        <v>15033</v>
       </c>
       <c r="P14">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="Q14">
-        <v>2079.3</v>
+        <v>355.9</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1475,122 +1916,200 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V14">
-        <v>21892</v>
+        <v>2128</v>
       </c>
       <c r="W14">
         <v>113</v>
       </c>
       <c r="X14">
+        <v>326.8</v>
+      </c>
+      <c r="Y14">
+        <v>46</v>
+      </c>
+      <c r="Z14">
+        <v>40.7</v>
+      </c>
+      <c r="AA14">
+        <v>-0.4</v>
+      </c>
+      <c r="AB14">
+        <v>39884</v>
+      </c>
+      <c r="AC14">
+        <v>353</v>
+      </c>
+      <c r="AD14">
+        <v>2079.3</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>21892</v>
+      </c>
+      <c r="AJ14">
+        <v>113</v>
+      </c>
+      <c r="AK14">
         <v>1477.2</v>
       </c>
-      <c r="Y14">
+      <c r="AL14">
         <v>27</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>23.9</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>358464</v>
+        <v>159975</v>
       </c>
       <c r="C15">
-        <v>3896.3</v>
+        <v>1738.9</v>
       </c>
       <c r="D15">
-        <v>7444</v>
+        <v>2237.9</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>395.5</v>
+        <v>36.8</v>
       </c>
       <c r="G15">
-        <v>1890</v>
+        <v>960</v>
       </c>
       <c r="H15">
-        <v>4329.2</v>
+        <v>2469.2</v>
       </c>
       <c r="I15">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="J15">
         <v>92</v>
       </c>
       <c r="K15">
-        <v>4537.5</v>
+        <v>2253.2</v>
       </c>
       <c r="L15">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>85.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="N15">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O15">
-        <v>51587</v>
+        <v>94956</v>
       </c>
       <c r="P15">
-        <v>560.7</v>
+        <v>1032.1</v>
       </c>
       <c r="Q15">
-        <v>795.8</v>
+        <v>5053</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T15">
-        <v>264.5</v>
+        <v>167</v>
       </c>
       <c r="U15">
-        <v>901.2</v>
+        <v>483.5</v>
       </c>
       <c r="V15">
-        <v>5316</v>
+        <v>46992</v>
       </c>
       <c r="W15">
         <v>92</v>
       </c>
       <c r="X15">
+        <v>1337.4</v>
+      </c>
+      <c r="Y15">
+        <v>71</v>
+      </c>
+      <c r="Z15">
+        <v>77.2</v>
+      </c>
+      <c r="AA15">
+        <v>1.1</v>
+      </c>
+      <c r="AB15">
+        <v>51587</v>
+      </c>
+      <c r="AC15">
+        <v>560.7</v>
+      </c>
+      <c r="AD15">
+        <v>795.8</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>264.5</v>
+      </c>
+      <c r="AH15">
+        <v>901.2</v>
+      </c>
+      <c r="AI15">
+        <v>5316</v>
+      </c>
+      <c r="AJ15">
+        <v>92</v>
+      </c>
+      <c r="AK15">
         <v>1011.5</v>
       </c>
-      <c r="Y15">
+      <c r="AL15">
         <v>51</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>55.4</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>59979</v>
+        <v>20284</v>
       </c>
       <c r="C16">
-        <v>1090.5</v>
+        <v>368.8</v>
       </c>
       <c r="D16">
-        <v>3863.5</v>
+        <v>1006.2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1602,34 +2121,34 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>209.5</v>
+        <v>107.5</v>
       </c>
       <c r="I16">
-        <v>26102</v>
+        <v>4946</v>
       </c>
       <c r="J16">
         <v>55</v>
       </c>
       <c r="K16">
-        <v>2499.1</v>
+        <v>922</v>
       </c>
       <c r="L16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>43.6</v>
+        <v>40</v>
       </c>
       <c r="N16">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="O16">
-        <v>7226</v>
+        <v>2853</v>
       </c>
       <c r="P16">
-        <v>131.4</v>
+        <v>51.9</v>
       </c>
       <c r="Q16">
-        <v>343.6</v>
+        <v>132.5</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1641,31 +2160,71 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V16">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="W16">
         <v>55</v>
       </c>
       <c r="X16">
+        <v>142.6</v>
+      </c>
+      <c r="Y16">
+        <v>20</v>
+      </c>
+      <c r="Z16">
+        <v>36.4</v>
+      </c>
+      <c r="AA16">
+        <v>-0.5</v>
+      </c>
+      <c r="AB16">
+        <v>7226</v>
+      </c>
+      <c r="AC16">
+        <v>131.4</v>
+      </c>
+      <c r="AD16">
+        <v>343.6</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1735</v>
+      </c>
+      <c r="AJ16">
+        <v>55</v>
+      </c>
+      <c r="AK16">
         <v>555.8</v>
       </c>
-      <c r="Y16">
+      <c r="AL16">
         <v>13</v>
       </c>
-      <c r="Z16">
+      <c r="AM16">
         <v>23.6</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>-0.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysis/social_media_analytics/pivot_tables/governance/museum_activity_groups__var1-governance.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance/museum_activity_groups__var1-governance.xlsx
@@ -717,43 +717,40 @@
         <v>-2</v>
       </c>
       <c r="AB4">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>3</v>
       </c>
-      <c r="AK4">
-        <v>2413</v>
-      </c>
       <c r="AL4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.6</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -761,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>676612</v>
+        <v>793149</v>
       </c>
       <c r="C5">
-        <v>942.4</v>
+        <v>1104.7</v>
       </c>
       <c r="D5">
-        <v>1733.7</v>
+        <v>2120.4</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -776,37 +773,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>256</v>
+        <v>276.5</v>
       </c>
       <c r="H5">
-        <v>1318.2</v>
+        <v>1491.5</v>
       </c>
       <c r="I5">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="J5">
         <v>718</v>
       </c>
       <c r="K5">
-        <v>1483.8</v>
+        <v>1770.4</v>
       </c>
       <c r="L5">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M5">
-        <v>63.5</v>
+        <v>62.4</v>
       </c>
       <c r="N5">
         <v>0.6</v>
       </c>
       <c r="O5">
-        <v>197297</v>
+        <v>228941</v>
       </c>
       <c r="P5">
-        <v>274.8</v>
+        <v>318.9</v>
       </c>
       <c r="Q5">
-        <v>864.9</v>
+        <v>1079.9</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -815,37 +812,37 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U5">
-        <v>224.8</v>
+        <v>261.8</v>
       </c>
       <c r="V5">
-        <v>12827</v>
+        <v>17700</v>
       </c>
       <c r="W5">
         <v>718</v>
       </c>
       <c r="X5">
-        <v>430.8</v>
+        <v>506.5</v>
       </c>
       <c r="Y5">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Z5">
-        <v>63.8</v>
+        <v>63</v>
       </c>
       <c r="AA5">
         <v>0.6</v>
       </c>
       <c r="AB5">
-        <v>392839</v>
+        <v>427452</v>
       </c>
       <c r="AC5">
-        <v>547.1</v>
+        <v>595.3</v>
       </c>
       <c r="AD5">
-        <v>1222.2</v>
+        <v>831.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -854,28 +851,28 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>302.5</v>
       </c>
       <c r="AH5">
-        <v>721.5</v>
+        <v>938</v>
       </c>
       <c r="AI5">
-        <v>13336</v>
+        <v>8295</v>
       </c>
       <c r="AJ5">
         <v>718</v>
       </c>
       <c r="AK5">
-        <v>1259.1</v>
+        <v>909.5</v>
       </c>
       <c r="AL5">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="AM5">
-        <v>43.5</v>
+        <v>65.5</v>
       </c>
       <c r="AN5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -883,13 +880,13 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>165062</v>
+        <v>195202</v>
       </c>
       <c r="C6">
-        <v>2392.2</v>
+        <v>2829</v>
       </c>
       <c r="D6">
-        <v>3566.1</v>
+        <v>4398.8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -898,106 +895,106 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1045</v>
+        <v>1215</v>
       </c>
       <c r="H6">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="I6">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="J6">
         <v>69</v>
       </c>
       <c r="K6">
-        <v>3301.2</v>
+        <v>4066.7</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>72.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O6">
-        <v>117541</v>
+        <v>137323</v>
       </c>
       <c r="P6">
-        <v>1703.5</v>
+        <v>1990.2</v>
       </c>
       <c r="Q6">
-        <v>3180.9</v>
+        <v>3689.8</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="U6">
-        <v>1871</v>
+        <v>2168</v>
       </c>
       <c r="V6">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="W6">
         <v>69</v>
       </c>
       <c r="X6">
-        <v>2217.8</v>
+        <v>2692.6</v>
       </c>
       <c r="Y6">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z6">
-        <v>76.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="AA6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>47125</v>
+        <v>65303</v>
       </c>
       <c r="AC6">
-        <v>683</v>
+        <v>946.4</v>
       </c>
       <c r="AD6">
-        <v>645.8</v>
+        <v>836.4</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG6">
-        <v>686</v>
+        <v>889</v>
       </c>
       <c r="AH6">
-        <v>1003</v>
+        <v>1550</v>
       </c>
       <c r="AI6">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AJ6">
         <v>69</v>
       </c>
       <c r="AK6">
-        <v>981.8</v>
+        <v>1232.1</v>
       </c>
       <c r="AL6">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AM6">
-        <v>69.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="AN6">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1005,13 +1002,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>2452</v>
+        <v>2709</v>
       </c>
       <c r="C7">
-        <v>490.4</v>
+        <v>541.8</v>
       </c>
       <c r="D7">
-        <v>677.9</v>
+        <v>717.4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1020,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="H7">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="I7">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>817.3</v>
+        <v>903</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -1044,13 +1041,13 @@
         <v>0.5</v>
       </c>
       <c r="O7">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="P7">
-        <v>161.8</v>
+        <v>175.8</v>
       </c>
       <c r="Q7">
-        <v>186.6</v>
+        <v>199.2</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1059,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="U7">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="V7">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7">
-        <v>269.7</v>
+        <v>293</v>
       </c>
       <c r="Y7">
         <v>3</v>
@@ -1080,16 +1077,16 @@
         <v>60</v>
       </c>
       <c r="AA7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AB7">
-        <v>1252</v>
+        <v>1898</v>
       </c>
       <c r="AC7">
-        <v>250.4</v>
+        <v>379.6</v>
       </c>
       <c r="AD7">
-        <v>344.6</v>
+        <v>389.2</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1098,25 +1095,25 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AH7">
-        <v>577</v>
+        <v>725</v>
       </c>
       <c r="AI7">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AJ7">
         <v>5</v>
       </c>
       <c r="AK7">
-        <v>626</v>
+        <v>632.7</v>
       </c>
       <c r="AL7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AN7">
         <v>0.1</v>
@@ -1127,13 +1124,13 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>7803</v>
+        <v>8951</v>
       </c>
       <c r="C8">
-        <v>150.1</v>
+        <v>172.1</v>
       </c>
       <c r="D8">
-        <v>330.4</v>
+        <v>370.9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1145,34 +1142,34 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>203</v>
+        <v>221.2</v>
       </c>
       <c r="I8">
-        <v>2032</v>
+        <v>2157</v>
       </c>
       <c r="J8">
         <v>52</v>
       </c>
       <c r="K8">
-        <v>390.2</v>
+        <v>471.1</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>38.5</v>
+        <v>36.5</v>
       </c>
       <c r="N8">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="O8">
-        <v>3414</v>
+        <v>3742</v>
       </c>
       <c r="P8">
-        <v>65.7</v>
+        <v>72</v>
       </c>
       <c r="Q8">
-        <v>137.6</v>
+        <v>151.7</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1184,34 +1181,34 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>63.8</v>
+        <v>78</v>
       </c>
       <c r="V8">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="W8">
         <v>52</v>
       </c>
       <c r="X8">
-        <v>155.2</v>
+        <v>178.2</v>
       </c>
       <c r="Y8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8">
-        <v>42.3</v>
+        <v>40.4</v>
       </c>
       <c r="AA8">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AB8">
-        <v>5233</v>
+        <v>11071</v>
       </c>
       <c r="AC8">
-        <v>100.6</v>
+        <v>212.9</v>
       </c>
       <c r="AD8">
-        <v>178.1</v>
+        <v>342.5</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1220,28 +1217,28 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH8">
-        <v>108.8</v>
+        <v>297.2</v>
       </c>
       <c r="AI8">
-        <v>727</v>
+        <v>1623</v>
       </c>
       <c r="AJ8">
         <v>52</v>
       </c>
       <c r="AK8">
-        <v>327.1</v>
+        <v>381.8</v>
       </c>
       <c r="AL8">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AM8">
-        <v>30.8</v>
+        <v>55.8</v>
       </c>
       <c r="AN8">
-        <v>-0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1249,13 +1246,13 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="C9">
-        <v>34.2</v>
+        <v>38.9</v>
       </c>
       <c r="D9">
-        <v>149.1</v>
+        <v>169.5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1270,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="J9">
         <v>19</v>
       </c>
       <c r="K9">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1288,13 +1285,13 @@
         <v>-1.8</v>
       </c>
       <c r="O9">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P9">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Q9">
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1309,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="W9">
         <v>19</v>
       </c>
       <c r="X9">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1327,13 +1324,13 @@
         <v>-1.8</v>
       </c>
       <c r="AB9">
-        <v>672</v>
+        <v>3079</v>
       </c>
       <c r="AC9">
-        <v>35.4</v>
+        <v>162.1</v>
       </c>
       <c r="AD9">
-        <v>107.8</v>
+        <v>500.7</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1348,22 +1345,22 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>395</v>
+        <v>2152</v>
       </c>
       <c r="AJ9">
         <v>19</v>
       </c>
       <c r="AK9">
-        <v>336</v>
+        <v>769.8</v>
       </c>
       <c r="AL9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM9">
-        <v>10.5</v>
+        <v>21.1</v>
       </c>
       <c r="AN9">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1371,13 +1368,13 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>86651</v>
+        <v>101417</v>
       </c>
       <c r="C10">
-        <v>473.5</v>
+        <v>554.2</v>
       </c>
       <c r="D10">
-        <v>906.2</v>
+        <v>1074.4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1386,37 +1383,37 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="H10">
-        <v>609</v>
+        <v>692.5</v>
       </c>
       <c r="I10">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="J10">
         <v>183</v>
       </c>
       <c r="K10">
-        <v>682.3</v>
+        <v>804.9</v>
       </c>
       <c r="L10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>69.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="N10">
         <v>0.9</v>
       </c>
       <c r="O10">
-        <v>27132</v>
+        <v>30701</v>
       </c>
       <c r="P10">
-        <v>148.3</v>
+        <v>167.8</v>
       </c>
       <c r="Q10">
-        <v>308.9</v>
+        <v>343.2</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1425,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U10">
-        <v>183.5</v>
+        <v>215</v>
       </c>
       <c r="V10">
-        <v>2905</v>
+        <v>3145</v>
       </c>
       <c r="W10">
         <v>183</v>
       </c>
       <c r="X10">
-        <v>208.7</v>
+        <v>236.2</v>
       </c>
       <c r="Y10">
         <v>130</v>
@@ -1449,43 +1446,43 @@
         <v>0.9</v>
       </c>
       <c r="AB10">
-        <v>42284</v>
+        <v>74374</v>
       </c>
       <c r="AC10">
-        <v>231.1</v>
+        <v>406.4</v>
       </c>
       <c r="AD10">
-        <v>298.1</v>
+        <v>366.4</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="AH10">
-        <v>432</v>
+        <v>634</v>
       </c>
       <c r="AI10">
-        <v>1253</v>
+        <v>1703</v>
       </c>
       <c r="AJ10">
         <v>183</v>
       </c>
       <c r="AK10">
-        <v>486</v>
+        <v>516.5</v>
       </c>
       <c r="AL10">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="AM10">
-        <v>47.5</v>
+        <v>78.7</v>
       </c>
       <c r="AN10">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1493,13 +1490,13 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>9357</v>
+        <v>10297</v>
       </c>
       <c r="C11">
-        <v>359.9</v>
+        <v>396</v>
       </c>
       <c r="D11">
-        <v>531.5</v>
+        <v>584</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1508,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>21.5</v>
+        <v>26.5</v>
       </c>
       <c r="H11">
-        <v>563</v>
+        <v>644</v>
       </c>
       <c r="I11">
-        <v>1662</v>
+        <v>1856</v>
       </c>
       <c r="J11">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>623.8</v>
+        <v>792.1</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>57.7</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O11">
-        <v>3480</v>
+        <v>3630</v>
       </c>
       <c r="P11">
-        <v>133.8</v>
+        <v>139.6</v>
       </c>
       <c r="Q11">
-        <v>257.6</v>
+        <v>265.4</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1547,67 +1544,67 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>73</v>
+        <v>92.8</v>
       </c>
       <c r="V11">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="W11">
         <v>26</v>
       </c>
       <c r="X11">
-        <v>232</v>
+        <v>279.2</v>
       </c>
       <c r="Y11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z11">
-        <v>57.7</v>
+        <v>50</v>
       </c>
       <c r="AA11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>5471</v>
+        <v>14303</v>
       </c>
       <c r="AC11">
-        <v>210.4</v>
+        <v>550.1</v>
       </c>
       <c r="AD11">
-        <v>476.7</v>
+        <v>591.7</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AH11">
-        <v>129</v>
+        <v>698</v>
       </c>
       <c r="AI11">
-        <v>1716</v>
+        <v>1988</v>
       </c>
       <c r="AJ11">
         <v>26</v>
       </c>
       <c r="AK11">
-        <v>781.6</v>
+        <v>621.9</v>
       </c>
       <c r="AL11">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AM11">
-        <v>26.9</v>
+        <v>88.5</v>
       </c>
       <c r="AN11">
-        <v>-0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1615,13 +1612,13 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1032093</v>
+        <v>1212376</v>
       </c>
       <c r="C12">
-        <v>673.7</v>
+        <v>791.4</v>
       </c>
       <c r="D12">
-        <v>2073.6</v>
+        <v>2434.5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1630,37 +1627,37 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H12">
-        <v>721.5</v>
+        <v>811.2</v>
       </c>
       <c r="I12">
-        <v>47580</v>
+        <v>55081</v>
       </c>
       <c r="J12">
         <v>1532</v>
       </c>
       <c r="K12">
-        <v>1067.3</v>
+        <v>1265.5</v>
       </c>
       <c r="L12">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="M12">
-        <v>63.1</v>
+        <v>62.5</v>
       </c>
       <c r="N12">
         <v>0.6</v>
       </c>
       <c r="O12">
-        <v>362115</v>
+        <v>422607</v>
       </c>
       <c r="P12">
-        <v>236.4</v>
+        <v>275.9</v>
       </c>
       <c r="Q12">
-        <v>924</v>
+        <v>1094.2</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1669,37 +1666,37 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="U12">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="V12">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="W12">
         <v>1532</v>
       </c>
       <c r="X12">
-        <v>372.5</v>
+        <v>437.9</v>
       </c>
       <c r="Y12">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="Z12">
-        <v>63.4</v>
+        <v>63</v>
       </c>
       <c r="AA12">
         <v>0.6</v>
       </c>
       <c r="AB12">
-        <v>390790</v>
+        <v>610252</v>
       </c>
       <c r="AC12">
-        <v>255.1</v>
+        <v>398.3</v>
       </c>
       <c r="AD12">
-        <v>723.5</v>
+        <v>601.6</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1708,28 +1705,28 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>131.5</v>
       </c>
       <c r="AH12">
-        <v>292.2</v>
+        <v>593.5</v>
       </c>
       <c r="AI12">
-        <v>20246</v>
+        <v>5325</v>
       </c>
       <c r="AJ12">
         <v>1532</v>
       </c>
       <c r="AK12">
-        <v>789.5</v>
+        <v>612.7</v>
       </c>
       <c r="AL12">
-        <v>495</v>
+        <v>996</v>
       </c>
       <c r="AM12">
-        <v>32.3</v>
+        <v>65</v>
       </c>
       <c r="AN12">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1737,13 +1734,13 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>194065</v>
+        <v>225628</v>
       </c>
       <c r="C13">
-        <v>411.2</v>
+        <v>478</v>
       </c>
       <c r="D13">
-        <v>2388.7</v>
+        <v>2689.6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1755,34 +1752,34 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>247.2</v>
+        <v>268.8</v>
       </c>
       <c r="I13">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="J13">
         <v>472</v>
       </c>
       <c r="K13">
-        <v>840.1</v>
+        <v>968.4</v>
       </c>
       <c r="L13">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M13">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O13">
-        <v>84346</v>
+        <v>100596</v>
       </c>
       <c r="P13">
-        <v>178.7</v>
+        <v>213.1</v>
       </c>
       <c r="Q13">
-        <v>1343.8</v>
+        <v>1634.6</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1791,37 +1788,37 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>48.2</v>
+        <v>56.2</v>
       </c>
       <c r="V13">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="W13">
         <v>472</v>
       </c>
       <c r="X13">
-        <v>342.9</v>
+        <v>404</v>
       </c>
       <c r="Y13">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Z13">
-        <v>52.1</v>
+        <v>52.8</v>
       </c>
       <c r="AA13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB13">
-        <v>197427</v>
+        <v>150366</v>
       </c>
       <c r="AC13">
-        <v>418.3</v>
+        <v>318.6</v>
       </c>
       <c r="AD13">
-        <v>2518.4</v>
+        <v>531.6</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -1830,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="AH13">
-        <v>200</v>
+        <v>469.2</v>
       </c>
       <c r="AI13">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AJ13">
         <v>472</v>
       </c>
       <c r="AK13">
-        <v>1371</v>
+        <v>554.9</v>
       </c>
       <c r="AL13">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="AM13">
-        <v>30.5</v>
+        <v>57.4</v>
       </c>
       <c r="AN13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -1859,13 +1856,13 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>48825</v>
+        <v>58464</v>
       </c>
       <c r="C14">
-        <v>432.1</v>
+        <v>517.4</v>
       </c>
       <c r="D14">
-        <v>989.4</v>
+        <v>1197.4</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1877,16 +1874,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="I14">
-        <v>6108</v>
+        <v>7355</v>
       </c>
       <c r="J14">
         <v>113</v>
       </c>
       <c r="K14">
-        <v>1109.7</v>
+        <v>1328.7</v>
       </c>
       <c r="L14">
         <v>44</v>
@@ -1898,13 +1895,13 @@
         <v>-0.4</v>
       </c>
       <c r="O14">
-        <v>15033</v>
+        <v>17807</v>
       </c>
       <c r="P14">
-        <v>133</v>
+        <v>157.6</v>
       </c>
       <c r="Q14">
-        <v>355.9</v>
+        <v>430.5</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1916,34 +1913,34 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="V14">
-        <v>2128</v>
+        <v>2724</v>
       </c>
       <c r="W14">
         <v>113</v>
       </c>
       <c r="X14">
-        <v>326.8</v>
+        <v>378.9</v>
       </c>
       <c r="Y14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z14">
-        <v>40.7</v>
+        <v>41.6</v>
       </c>
       <c r="AA14">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AB14">
-        <v>39884</v>
+        <v>38792</v>
       </c>
       <c r="AC14">
-        <v>353</v>
+        <v>343.3</v>
       </c>
       <c r="AD14">
-        <v>2079.3</v>
+        <v>682.1</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -1952,28 +1949,28 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="AI14">
-        <v>21892</v>
+        <v>4927</v>
       </c>
       <c r="AJ14">
         <v>113</v>
       </c>
       <c r="AK14">
-        <v>1477.2</v>
+        <v>646.5</v>
       </c>
       <c r="AL14">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AM14">
-        <v>23.9</v>
+        <v>53.1</v>
       </c>
       <c r="AN14">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -1981,91 +1978,91 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>159975</v>
+        <v>188460</v>
       </c>
       <c r="C15">
-        <v>1738.9</v>
+        <v>2048.5</v>
       </c>
       <c r="D15">
-        <v>2237.9</v>
+        <v>2592.3</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.8</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>960</v>
+        <v>1172</v>
       </c>
       <c r="H15">
-        <v>2469.2</v>
+        <v>3034.5</v>
       </c>
       <c r="I15">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="J15">
         <v>92</v>
       </c>
       <c r="K15">
-        <v>2253.2</v>
+        <v>2692.3</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N15">
         <v>1.2</v>
       </c>
       <c r="O15">
-        <v>94956</v>
+        <v>104009</v>
       </c>
       <c r="P15">
-        <v>1032.1</v>
+        <v>1130.5</v>
       </c>
       <c r="Q15">
-        <v>5053</v>
+        <v>5281.1</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="U15">
-        <v>483.5</v>
+        <v>565.8</v>
       </c>
       <c r="V15">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W15">
         <v>92</v>
       </c>
       <c r="X15">
-        <v>1337.4</v>
+        <v>1485.8</v>
       </c>
       <c r="Y15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z15">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="AA15">
         <v>1.1</v>
       </c>
       <c r="AB15">
-        <v>51587</v>
+        <v>52618</v>
       </c>
       <c r="AC15">
-        <v>560.7</v>
+        <v>571.9</v>
       </c>
       <c r="AD15">
-        <v>795.8</v>
+        <v>647</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2074,28 +2071,28 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>264.5</v>
+        <v>253.5</v>
       </c>
       <c r="AH15">
-        <v>901.2</v>
+        <v>1085.5</v>
       </c>
       <c r="AI15">
-        <v>5316</v>
+        <v>2204</v>
       </c>
       <c r="AJ15">
         <v>92</v>
       </c>
       <c r="AK15">
-        <v>1011.5</v>
+        <v>877</v>
       </c>
       <c r="AL15">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AM15">
-        <v>55.4</v>
+        <v>65.2</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2103,13 +2100,13 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>20284</v>
+        <v>25556</v>
       </c>
       <c r="C16">
-        <v>368.8</v>
+        <v>464.7</v>
       </c>
       <c r="D16">
-        <v>1006.2</v>
+        <v>1305.2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2121,16 +2118,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>107.5</v>
+        <v>130</v>
       </c>
       <c r="I16">
-        <v>4946</v>
+        <v>6144</v>
       </c>
       <c r="J16">
         <v>55</v>
       </c>
       <c r="K16">
-        <v>922</v>
+        <v>1161.6</v>
       </c>
       <c r="L16">
         <v>22</v>
@@ -2139,16 +2136,16 @@
         <v>40</v>
       </c>
       <c r="N16">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="O16">
-        <v>2853</v>
+        <v>3929</v>
       </c>
       <c r="P16">
-        <v>51.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="Q16">
-        <v>132.5</v>
+        <v>198.9</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2160,34 +2157,34 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V16">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="W16">
         <v>55</v>
       </c>
       <c r="X16">
-        <v>142.6</v>
+        <v>187.1</v>
       </c>
       <c r="Y16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z16">
-        <v>36.4</v>
+        <v>38.2</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AB16">
-        <v>7226</v>
+        <v>15178</v>
       </c>
       <c r="AC16">
-        <v>131.4</v>
+        <v>276</v>
       </c>
       <c r="AD16">
-        <v>343.6</v>
+        <v>583.9</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2196,28 +2193,28 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AI16">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AJ16">
         <v>55</v>
       </c>
       <c r="AK16">
-        <v>555.8</v>
+        <v>523.4</v>
       </c>
       <c r="AL16">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM16">
-        <v>23.6</v>
+        <v>52.7</v>
       </c>
       <c r="AN16">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
